--- a/KetQuaTest_CartService.xlsx
+++ b/KetQuaTest_CartService.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -35,40 +35,112 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>CART_SVC_03</t>
+  </si>
+  <si>
+    <t>Service: Thêm SP Null</t>
+  </si>
+  <si>
+    <t>Variant=null</t>
+  </si>
+  <si>
+    <t>Input Variant = null</t>
+  </si>
+  <si>
+    <t>Size không đổi</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>CART_SVC_10</t>
+  </si>
+  <si>
+    <t>Service: Xóa toàn bộ</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Giỏ [P1, P2] -&gt; Clear</t>
+  </si>
+  <si>
+    <t>Size=0</t>
+  </si>
+  <si>
+    <t>CART_SVC_06</t>
+  </si>
+  <si>
+    <t>Service: Update số lượng</t>
+  </si>
+  <si>
+    <t>Qty=5</t>
+  </si>
+  <si>
+    <t>Giỏ có P1(1) -&gt; Update P1 = 5</t>
+  </si>
+  <si>
     <t>CART_SVC_02</t>
   </si>
   <si>
     <t>Service: Cộng dồn SP cũ</t>
   </si>
   <si>
+    <t>P1, Qty=3</t>
+  </si>
+  <si>
     <t>Giỏ có P1(2) -&gt; Thêm P1(3)</t>
   </si>
   <si>
-    <t>P1, Qty=3</t>
-  </si>
-  <si>
     <t>Size=1, Qty=5</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>CART_SVC_08</t>
+  </si>
+  <si>
+    <t>Service: Xóa SP theo index</t>
+  </si>
+  <si>
+    <t>Index=0</t>
+  </si>
+  <si>
+    <t>Giỏ [P1, P2] -&gt; Xóa index 0</t>
+  </si>
+  <si>
+    <t>Size=1, Còn P2</t>
   </si>
   <si>
     <t>CART_SVC_04</t>
   </si>
   <si>
-    <t>Service: Xóa SP theo index</t>
-  </si>
-  <si>
-    <t>Giỏ [P1, P2] -&gt; Xóa index 0</t>
-  </si>
-  <si>
-    <t>Index=0</t>
-  </si>
-  <si>
-    <t>Size=1, Còn P2</t>
+    <t>Service: Giỏ hàng Null</t>
+  </si>
+  <si>
+    <t>Cart=null</t>
+  </si>
+  <si>
+    <t>Input Cart = null</t>
+  </si>
+  <si>
+    <t>Tự tạo List mới, Size=1</t>
+  </si>
+  <si>
+    <t>CART_SVC_12</t>
+  </si>
+  <si>
+    <t>Service: Tính tiền giỏ rỗng</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Giỏ rỗng hoặc null</t>
+  </si>
+  <si>
+    <t>Total=0.0</t>
   </si>
   <si>
     <t>CART_SVC_05</t>
@@ -77,13 +149,22 @@
     <t>Service: Update về 0 -&gt; Xóa</t>
   </si>
   <si>
+    <t>Qty=0</t>
+  </si>
+  <si>
     <t>Giỏ có P1 -&gt; Update P1 = 0</t>
   </si>
   <si>
-    <t>Qty=0</t>
-  </si>
-  <si>
-    <t>Size=0</t>
+    <t>CART_SVC_09</t>
+  </si>
+  <si>
+    <t>Service: Xóa Index sai</t>
+  </si>
+  <si>
+    <t>Index=10</t>
+  </si>
+  <si>
+    <t>Giỏ [P1] -&gt; Xóa index 10</t>
   </si>
   <si>
     <t>CART_SVC_01</t>
@@ -92,25 +173,40 @@
     <t>Service: Thêm mới SP</t>
   </si>
   <si>
+    <t>P1, Qty=2</t>
+  </si>
+  <si>
     <t>Giỏ rỗng -&gt; Thêm P1 (SL: 2)</t>
   </si>
   <si>
-    <t>P1, Qty=2</t>
-  </si>
-  <si>
     <t>Size=1, Qty=2</t>
   </si>
   <si>
-    <t>CART_SVC_03</t>
+    <t>CART_SVC_07</t>
+  </si>
+  <si>
+    <t>Service: Update ID không có</t>
+  </si>
+  <si>
+    <t>ID=99</t>
+  </si>
+  <si>
+    <t>Giỏ có P1(1) -&gt; Update ID=99</t>
+  </si>
+  <si>
+    <t>Không thay đổi</t>
+  </si>
+  <si>
+    <t>CART_SVC_11</t>
   </si>
   <si>
     <t>Service: Tính tổng tiền</t>
   </si>
   <si>
+    <t>Data setup</t>
+  </si>
+  <si>
     <t>P1($100 * 2) + P2($200 * 1)</t>
-  </si>
-  <si>
-    <t>Data setup</t>
   </si>
   <si>
     <t>Total=400.0</t>
@@ -191,17 +287,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.4453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.73828125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.17578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -289,7 +385,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -300,19 +396,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -323,24 +419,185 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s" s="2">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>13</v>
       </c>
     </row>
